--- a/DB_plan.xlsx
+++ b/DB_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DatabaseSysProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\DBProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE1D0C3-DF61-4251-9F3D-B38B2A3E9B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A621BFD8-2E9D-4400-A8E6-1FD7199A7F53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8505" windowWidth="16440" windowHeight="28440" xr2:uid="{2A397BC1-14C0-425C-915E-1C7F7AB08037}"/>
+    <workbookView xWindow="28920" yWindow="1845" windowWidth="15570" windowHeight="13965" xr2:uid="{2A397BC1-14C0-425C-915E-1C7F7AB08037}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
-  <si>
-    <t>Salesperson</t>
-  </si>
-  <si>
-    <t>position_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>site_name</t>
   </si>
@@ -54,15 +48,6 @@
     <t>l_name</t>
   </si>
   <si>
-    <t>position_name</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
     <t>Chris</t>
   </si>
   <si>
@@ -84,30 +69,18 @@
     <t>state</t>
   </si>
   <si>
-    <t>street_number</t>
-  </si>
-  <si>
     <t>Mount Pocono</t>
   </si>
   <si>
     <t>PA</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>Sterling Rd</t>
   </si>
   <si>
     <t>Perras</t>
   </si>
   <si>
-    <t>base_pay</t>
-  </si>
-  <si>
-    <t>commission</t>
-  </si>
-  <si>
     <t>customer_ID</t>
   </si>
   <si>
@@ -120,9 +93,6 @@
     <t>Simpson</t>
   </si>
   <si>
-    <t>Stroudsburg</t>
-  </si>
-  <si>
     <t>transaction_ID</t>
   </si>
   <si>
@@ -132,12 +102,6 @@
     <t>car_ID</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -150,9 +114,6 @@
     <t>Ford</t>
   </si>
   <si>
-    <t>Focus SE</t>
-  </si>
-  <si>
     <t>silver</t>
   </si>
   <si>
@@ -162,9 +123,6 @@
     <t>mileage</t>
   </si>
   <si>
-    <t>2nd St</t>
-  </si>
-  <si>
     <t>employee_id</t>
   </si>
   <si>
@@ -177,7 +135,55 @@
     <t>street number</t>
   </si>
   <si>
-    <t>zip_id</t>
+    <t>password?</t>
+  </si>
+  <si>
+    <t>pas$$word</t>
+  </si>
+  <si>
+    <t>email?</t>
+  </si>
+  <si>
+    <t>email@gmail.com</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>../images/00001/thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>email2@gmail.com</t>
+  </si>
+  <si>
+    <t>thumbnail_src</t>
+  </si>
+  <si>
+    <t>color_ID</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>0a0a00a0das</t>
+  </si>
+  <si>
+    <t>potential_ID</t>
+  </si>
+  <si>
+    <t>saleprice</t>
+  </si>
+  <si>
+    <t>MMID</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Focus</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -196,8 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -219,18 +226,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA2442C-BCD6-4F7B-972E-434DC56F72C6}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,305 +654,328 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="10" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18344</v>
+      </c>
+      <c r="F5" s="1">
+        <v>18344</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>180000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>18344</v>
-      </c>
-      <c r="F5">
-        <v>18344</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>456</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17">
-        <v>18360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20">
-        <v>2010</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20">
-        <v>180000</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{B5A0D4CB-D586-4BF4-AE5C-2D5954256E62}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{ABD5982D-31AF-4ACD-9B12-80C7B6F09A52}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{F3A7C142-3924-444E-BD17-7DE1E6DBA198}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>